--- a/Database/Database/CanHo.xlsx
+++ b/Database/Database/CanHo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tầng 1</t>
   </si>
@@ -29,10 +29,6 @@
   <si>
     <t>Tầng 2</t>
   </si>
-  <si>
-    <t>Chú ý: 
-Do số lượng &amp; cách bố trí căn hộ ở các chung cư là cố định, nên chương trình không cho phép thực hiện thêm, xóa, sửa đối với căn hộ. Nếu muốn chỉnh sửa thì phải chỉnh trong mã nguồn file sql, ở bảng CANHO.</t>
-  </si>
 </sst>
 </file>
 
@@ -42,7 +38,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -50,7 +46,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -58,7 +54,7 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -224,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,9 +254,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,21 +556,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M10"/>
+  <dimension ref="C3:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="13" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="13" width="11.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:13" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:13" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -612,7 +605,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -647,7 +640,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
@@ -682,7 +675,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="3:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>0</v>
       </c>
@@ -717,26 +710,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="3:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
+    <row r="8" spans="3:13" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C10:M10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
@@ -748,7 +723,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -760,7 +735,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
